--- a/dbt_code_generation_workflow/ip/data_src_a_data_dictionary.xlsx
+++ b/dbt_code_generation_workflow/ip/data_src_a_data_dictionary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulfry/Dropbox/tech/code/git-repos/dbt_repos/dbt/dbt_project_setup_automation/ip/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulfry/Dropbox/tech/code/git-repos/dbt_repos/dbt/dbt_code_generation_workflow/ip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192028DF-C963-C844-9B76-40A49DBC865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791BEF27-2B7F-B242-87FC-2AED1EE12323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F5447BD4-51BA-CB4A-AA03-46A64813458D}"/>
+    <workbookView xWindow="-31140" yWindow="2480" windowWidth="28800" windowHeight="17500" xr2:uid="{F5447BD4-51BA-CB4A-AA03-46A64813458D}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_src_a_table_a" sheetId="1" r:id="rId1"/>
-    <sheet name="data_src_a_table_b" sheetId="2" r:id="rId2"/>
+    <sheet name="table_a" sheetId="1" r:id="rId1"/>
+    <sheet name="table_b" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -84,15 +84,9 @@
     <t>eg_fk_constraint_test</t>
   </si>
   <si>
-    <t>fk_contraint_table</t>
-  </si>
-  <si>
     <t>Example field for the 'relationships' test</t>
   </si>
   <si>
-    <t>fk_contraint_key</t>
-  </si>
-  <si>
     <t>a,b,c</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>updated_at_field</t>
+  </si>
+  <si>
+    <t>fk_constraint_table</t>
+  </si>
+  <si>
+    <t>fk_constraint_key</t>
   </si>
 </sst>
 </file>
@@ -220,8 +220,8 @@
     <tableColumn id="11" xr3:uid="{20AE297A-49F0-164A-831E-045BFB42ED03}" name="unique"/>
     <tableColumn id="6" xr3:uid="{49C67C95-EF85-EA42-A1AE-7B17EA605A4B}" name="not_null"/>
     <tableColumn id="7" xr3:uid="{26664B8F-5D74-0642-9DF6-0B6BD53CA600}" name="accepted_values"/>
-    <tableColumn id="8" xr3:uid="{E8BCB4A9-267A-C341-9095-2399C9E2376C}" name="fk_contraint_table"/>
-    <tableColumn id="9" xr3:uid="{27D65D4C-E4B2-DE4C-8180-F043DE421F54}" name="fk_contraint_key"/>
+    <tableColumn id="8" xr3:uid="{E8BCB4A9-267A-C341-9095-2399C9E2376C}" name="fk_constraint_table"/>
+    <tableColumn id="9" xr3:uid="{27D65D4C-E4B2-DE4C-8180-F043DE421F54}" name="fk_constraint_key"/>
     <tableColumn id="10" xr3:uid="{1CE9CB1E-0B30-D24A-B28D-276FA8E1645A}" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -242,8 +242,8 @@
     <tableColumn id="12" xr3:uid="{BD592517-EC8E-A64B-9BC8-9774AB54B774}" name="unique"/>
     <tableColumn id="11" xr3:uid="{BFC6A842-B687-9E42-BC6E-BBAC76B8848F}" name="not_null"/>
     <tableColumn id="7" xr3:uid="{13995F2A-884C-EC4C-91AE-A78AA7FC7811}" name="accepted_values"/>
-    <tableColumn id="8" xr3:uid="{597F6071-F050-CE46-B51A-EB42F8533BB0}" name="fk_contraint_table"/>
-    <tableColumn id="9" xr3:uid="{20F9BD36-5CC9-D54C-832F-15B82B1B6FE9}" name="fk_contraint_key"/>
+    <tableColumn id="8" xr3:uid="{597F6071-F050-CE46-B51A-EB42F8533BB0}" name="fk_constraint_table"/>
+    <tableColumn id="9" xr3:uid="{20F9BD36-5CC9-D54C-832F-15B82B1B6FE9}" name="fk_constraint_key"/>
     <tableColumn id="10" xr3:uid="{449E05AD-1F24-5448-B133-C7F721CABBBC}" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A3F06E-3DE3-9748-8162-6D49E20586D1}">
   <dimension ref="B2:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,31 +613,31 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
         <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="17" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E301CF-5EFF-2C41-B661-9A4150B69AC2}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,31 +792,31 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
         <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="17" x14ac:dyDescent="0.2">
@@ -870,10 +870,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>4</v>

--- a/dbt_code_generation_workflow/ip/data_src_a_data_dictionary.xlsx
+++ b/dbt_code_generation_workflow/ip/data_src_a_data_dictionary.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulfry/Dropbox/tech/code/git-repos/dbt_repos/dbt/dbt_code_generation_workflow/ip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791BEF27-2B7F-B242-87FC-2AED1EE12323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C58A70-EF49-D34E-A513-6C5A0FA73FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31140" yWindow="2480" windowWidth="28800" windowHeight="17500" xr2:uid="{F5447BD4-51BA-CB4A-AA03-46A64813458D}"/>
+    <workbookView xWindow="-31140" yWindow="2480" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F5447BD4-51BA-CB4A-AA03-46A64813458D}"/>
   </bookViews>
   <sheets>
     <sheet name="table_a" sheetId="1" r:id="rId1"/>
     <sheet name="table_b" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A3F06E-3DE3-9748-8162-6D49E20586D1}">
   <dimension ref="B2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E301CF-5EFF-2C41-B661-9A4150B69AC2}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
